--- a/pcb/motor_control_board/BOM.xlsx
+++ b/pcb/motor_control_board/BOM.xlsx
@@ -570,7 +570,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,16 +612,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -672,12 +678,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -702,34 +708,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1037,7 +1046,7 @@
   <dimension ref="A2:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1055,25 +1064,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="D2" s="17" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="D2" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="28.5" customHeight="1">
       <c r="A6" s="4" t="s">
@@ -1105,52 +1114,52 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="10">
+        <v>1</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="10">
         <v>2</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="10"/>
+      <c r="H7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1">
-      <c r="A8" s="11">
+      <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="12">
         <v>2</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="14" t="s">
@@ -1159,1034 +1168,1034 @@
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="7">
+      <c r="A9" s="10">
         <v>3</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="10"/>
+      <c r="H9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="7">
+      <c r="A10" s="10">
         <v>4</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="10">
         <v>9</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="10"/>
+      <c r="H10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="7">
+      <c r="A11" s="10">
         <v>5</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="10"/>
+      <c r="H11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="7">
+      <c r="A12" s="10">
         <v>6</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="10">
         <v>4</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="10"/>
+      <c r="H12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="7">
+      <c r="A13" s="10">
         <v>7</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="10">
         <v>3</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="10"/>
+      <c r="H13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="7">
+      <c r="A14" s="10">
         <v>8</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="10">
         <v>2</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="10"/>
+      <c r="H14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="7">
+      <c r="A15" s="10">
         <v>9</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="10">
         <v>2</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="10"/>
+      <c r="H15" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1">
-      <c r="A16" s="11">
-        <v>10</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="12">
+        <v>10</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="11">
-        <v>1</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="H16" s="12" t="s">
+      <c r="C16" s="12">
+        <v>1</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="13" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="7">
+      <c r="A17" s="10">
         <v>11</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="10">
         <v>2</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="12"/>
+      <c r="H17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="7">
+      <c r="A18" s="10">
         <v>12</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="10">
         <v>3</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="10"/>
+      <c r="H18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="17"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="7">
+      <c r="A19" s="10">
         <v>13</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="C19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="10"/>
+      <c r="H19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="17"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="7">
+      <c r="A20" s="10">
         <v>14</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="7">
-        <v>1</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="C20" s="10">
+        <v>1</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="10"/>
+      <c r="H20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="7">
+      <c r="A21" s="10">
         <v>15</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="10">
         <v>2</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="10" t="s">
+      <c r="H21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="17" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="7">
+      <c r="A22" s="10">
         <v>16</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="12">
         <v>5</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="17" t="s">
         <v>10</v>
       </c>
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="11">
+      <c r="A23" s="12">
         <v>17</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="10">
         <v>2</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="10"/>
+      <c r="H23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="17"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="7">
+      <c r="A24" s="10">
         <v>18</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="7">
-        <v>1</v>
-      </c>
-      <c r="D24" s="8" t="s">
+      <c r="C24" s="10">
+        <v>1</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="11">
         <v>2659</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="10"/>
+      <c r="H24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="7">
+      <c r="A25" s="10">
         <v>19</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="7">
-        <v>1</v>
-      </c>
-      <c r="D25" s="8" t="s">
+      <c r="C25" s="10">
+        <v>1</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="10"/>
+      <c r="H25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1">
-      <c r="A26" s="7">
+      <c r="A26" s="10">
         <v>20</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="7">
-        <v>1</v>
-      </c>
-      <c r="D26" s="8" t="s">
+      <c r="C26" s="10">
+        <v>1</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H26" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="10"/>
+      <c r="H26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="7">
+      <c r="A27" s="10">
         <v>21</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="7">
-        <v>1</v>
-      </c>
-      <c r="D27" s="8" t="s">
+      <c r="C27" s="10">
+        <v>1</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="H27" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="10"/>
+      <c r="H27" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="17"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="7">
+      <c r="A28" s="10">
         <v>22</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="7">
-        <v>1</v>
-      </c>
-      <c r="D28" s="8" t="s">
+      <c r="C28" s="10">
+        <v>1</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="10"/>
+      <c r="H28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="17"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="7">
+      <c r="A29" s="10">
         <v>23</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="7">
-        <v>1</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="H29" s="12" t="s">
+      <c r="C29" s="10">
+        <v>1</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="H29" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I29" s="12"/>
+      <c r="I29" s="13"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="7">
+      <c r="A30" s="10">
         <v>24</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="11">
-        <v>1</v>
-      </c>
-      <c r="D30" s="12" t="s">
+      <c r="C30" s="12">
+        <v>1</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="16"/>
+      <c r="G30" s="19"/>
       <c r="H30" s="14" t="s">
         <v>10</v>
       </c>
       <c r="I30" s="14"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="11">
+      <c r="A31" s="12">
         <v>25</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="7">
-        <v>1</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="H31" s="12" t="s">
+      <c r="C31" s="10">
+        <v>1</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="H31" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I31" s="12"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="7">
+      <c r="A32" s="10">
         <v>27</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C32" s="7">
-        <v>1</v>
-      </c>
-      <c r="D32" s="8" t="s">
+      <c r="C32" s="10">
+        <v>1</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="H32" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="10"/>
+      <c r="H32" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="17"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="7">
+      <c r="A33" s="10">
         <v>28</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="7">
-        <v>1</v>
-      </c>
-      <c r="D33" s="8" t="s">
+      <c r="C33" s="10">
+        <v>1</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G33" s="15"/>
-      <c r="H33" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="10"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="17"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="7">
+      <c r="A34" s="10">
         <v>29</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="10">
         <v>4</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="G34" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="H34" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="10"/>
+      <c r="H34" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="7">
+      <c r="A35" s="10">
         <v>30</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="10">
         <v>2</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="H35" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="10"/>
+      <c r="H35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="17"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="7">
+      <c r="A36" s="10">
         <v>31</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="10">
         <v>2</v>
       </c>
-      <c r="D36" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="12" t="s">
+      <c r="D36" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="13" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="7">
+      <c r="A37" s="10">
         <v>32</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="10">
         <v>5</v>
       </c>
-      <c r="D37" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37" s="12" t="s">
+      <c r="D37" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="13" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="7">
+      <c r="A38" s="10">
         <v>33</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="7">
-        <v>1</v>
-      </c>
-      <c r="D38" s="8" t="s">
+      <c r="C38" s="10">
+        <v>1</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="10"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="17"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="7">
+      <c r="A39" s="10">
         <v>34</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="7">
-        <v>1</v>
-      </c>
-      <c r="D39" s="8" t="s">
+      <c r="C39" s="10">
+        <v>1</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="G39" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="H39" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" s="10"/>
+      <c r="H39" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="17"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="7">
+      <c r="A40" s="10">
         <v>35</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="7">
-        <v>1</v>
-      </c>
-      <c r="D40" s="8" t="s">
+      <c r="C40" s="10">
+        <v>1</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="G40" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="H40" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I40" s="10"/>
+      <c r="H40" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="17"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="7">
+      <c r="A41" s="10">
         <v>36</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="7">
-        <v>1</v>
-      </c>
-      <c r="D41" s="8" t="s">
+      <c r="C41" s="10">
+        <v>1</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="G41" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="H41" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" s="10"/>
+      <c r="H41" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="17"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="7">
+      <c r="A42" s="10">
         <v>37</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="7">
-        <v>1</v>
-      </c>
-      <c r="D42" s="8" t="s">
+      <c r="C42" s="10">
+        <v>1</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="G42" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="H42" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="10"/>
+      <c r="H42" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="17"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="7">
+      <c r="A43" s="10">
         <v>38</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="7">
-        <v>1</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="H43" s="12" t="s">
+      <c r="C43" s="10">
+        <v>1</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="H43" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="I43" s="13" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="7">
+      <c r="A44" s="10">
         <v>39</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="7">
-        <v>1</v>
-      </c>
-      <c r="D44" s="8" t="s">
+      <c r="C44" s="10">
+        <v>1</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="G44" s="15"/>
-      <c r="H44" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" s="10"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="7">
+      <c r="A45" s="10">
         <v>40</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="10">
         <v>2</v>
       </c>
-      <c r="D45" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="H45" s="12" t="s">
+      <c r="D45" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="H45" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="I45" s="13" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="7">
+      <c r="A46" s="10">
         <v>41</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C46" s="7">
-        <v>1</v>
-      </c>
-      <c r="D46" s="12" t="s">
+      <c r="C46" s="10">
+        <v>1</v>
+      </c>
+      <c r="D46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="13">
         <v>1210</v>
       </c>
-      <c r="H46" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" s="12"/>
+      <c r="H46" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="7"/>
@@ -2197,7 +2206,7 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
